--- a/image/medicationknowledge.xlsx
+++ b/image/medicationknowledge.xlsx
@@ -1419,45 +1419,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="78.1796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="79.484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="99.765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="99.68359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="59.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="59.96484375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="76.171875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="60.078125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.48046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="77.50390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="194.9609375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="193.3984375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="41.44140625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="41.99609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/medicationknowledge.xlsx
+++ b/image/medicationknowledge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4184" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4184" uniqueCount="406">
   <si>
     <t>Path</t>
   </si>
@@ -165,7 +165,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -492,10 +492,6 @@
     <t>MedicationKnowledge.synonym</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Additional names for a medication</t>
   </si>
   <si>
@@ -634,7 +630,7 @@
     <t>MedicationKnowledge.monograph.source</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|Media)
+    <t xml:space="preserve">Reference(DocumentReference)
 </t>
   </si>
   <si>
@@ -1090,7 +1086,7 @@
   </si>
   <si>
     <t>CodeableConcept
-stringQuantity {SimpleQuantity}base64Binary</t>
+stringQuantity {SimpleQuantity}base64BinaryAttachment</t>
   </si>
   <si>
     <t>Description of the characteristic</t>
@@ -1419,45 +1415,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="79.484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="78.1796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="99.68359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="99.765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="60.078125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="59.48046875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="77.50390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="59.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.96484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="76.171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="193.3984375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="194.9609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="41.99609375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="41.44140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3265,13 +3261,13 @@
         <v>49</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3351,7 +3347,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3374,13 +3370,13 @@
         <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3431,7 +3427,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3443,7 +3439,7 @@
         <v>40</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>40</v>
@@ -3460,7 +3456,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3483,13 +3479,13 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3540,7 +3536,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3564,12 +3560,12 @@
         <v>40</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3598,7 +3594,7 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>96</v>
@@ -3651,7 +3647,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3675,16 +3671,16 @@
         <v>40</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3706,10 +3702,10 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>96</v>
@@ -3764,7 +3760,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3793,7 +3789,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3819,10 +3815,10 @@
         <v>109</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3873,7 +3869,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>48</v>
@@ -3902,7 +3898,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3925,13 +3921,13 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3982,7 +3978,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>48</v>
@@ -4011,7 +4007,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4034,13 +4030,13 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4091,7 +4087,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4120,7 +4116,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4146,10 +4142,10 @@
         <v>109</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4200,7 +4196,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4229,7 +4225,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4252,13 +4248,13 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4309,7 +4305,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4321,7 +4317,7 @@
         <v>40</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>40</v>
@@ -4338,7 +4334,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4361,13 +4357,13 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4418,7 +4414,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4442,12 +4438,12 @@
         <v>40</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4476,7 +4472,7 @@
         <v>94</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>96</v>
@@ -4529,7 +4525,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4553,16 +4549,16 @@
         <v>40</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4584,10 +4580,10 @@
         <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>96</v>
@@ -4642,7 +4638,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4671,7 +4667,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4697,10 +4693,10 @@
         <v>109</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4751,7 +4747,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4780,7 +4776,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4803,13 +4799,13 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4860,7 +4856,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4889,7 +4885,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4912,13 +4908,13 @@
         <v>49</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4969,7 +4965,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4981,7 +4977,7 @@
         <v>40</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>40</v>
@@ -4998,7 +4994,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5021,13 +5017,13 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5078,7 +5074,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5102,12 +5098,12 @@
         <v>40</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5136,7 +5132,7 @@
         <v>94</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>96</v>
@@ -5189,7 +5185,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5213,16 +5209,16 @@
         <v>40</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5244,10 +5240,10 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>96</v>
@@ -5302,7 +5298,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5331,7 +5327,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5354,13 +5350,13 @@
         <v>49</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5411,7 +5407,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>48</v>
@@ -5432,15 +5428,15 @@
         <v>40</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>209</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5463,17 +5459,17 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5522,7 +5518,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5546,12 +5542,12 @@
         <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5574,13 +5570,13 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5631,7 +5627,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5646,13 +5642,13 @@
         <v>40</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>150</v>
@@ -5660,7 +5656,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5683,17 +5679,17 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5742,7 +5738,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5771,7 +5767,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5794,13 +5790,13 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5851,7 +5847,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5880,7 +5876,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5906,10 +5902,10 @@
         <v>109</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5939,11 +5935,11 @@
         <v>113</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="Y41" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="Y41" t="s" s="2">
-        <v>235</v>
-      </c>
       <c r="Z41" t="s" s="2">
         <v>40</v>
       </c>
@@ -5960,7 +5956,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5989,7 +5985,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6012,13 +6008,13 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6069,7 +6065,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6081,7 +6077,7 @@
         <v>40</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>40</v>
@@ -6098,7 +6094,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6121,13 +6117,13 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6178,7 +6174,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6202,12 +6198,12 @@
         <v>40</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6236,7 +6232,7 @@
         <v>94</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>96</v>
@@ -6289,7 +6285,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6313,16 +6309,16 @@
         <v>40</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6344,10 +6340,10 @@
         <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>96</v>
@@ -6402,7 +6398,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6431,7 +6427,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6457,10 +6453,10 @@
         <v>109</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6511,7 +6507,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>48</v>
@@ -6540,7 +6536,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6563,13 +6559,13 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6620,7 +6616,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6649,7 +6645,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6672,13 +6668,13 @@
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="K48" t="s" s="2">
-        <v>250</v>
-      </c>
       <c r="L48" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6729,7 +6725,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>48</v>
@@ -6758,7 +6754,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6781,13 +6777,13 @@
         <v>49</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6838,7 +6834,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6850,7 +6846,7 @@
         <v>40</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>40</v>
@@ -6867,7 +6863,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6890,13 +6886,13 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6947,7 +6943,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6971,12 +6967,12 @@
         <v>40</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7005,7 +7001,7 @@
         <v>94</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>96</v>
@@ -7058,7 +7054,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7082,16 +7078,16 @@
         <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7113,10 +7109,10 @@
         <v>93</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>96</v>
@@ -7171,7 +7167,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7200,7 +7196,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7226,10 +7222,10 @@
         <v>109</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7280,7 +7276,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7309,7 +7305,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7332,13 +7328,13 @@
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7389,7 +7385,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7418,7 +7414,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7441,13 +7437,13 @@
         <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7498,7 +7494,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7510,7 +7506,7 @@
         <v>40</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>40</v>
@@ -7527,7 +7523,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7550,13 +7546,13 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7607,7 +7603,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7631,12 +7627,12 @@
         <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7665,7 +7661,7 @@
         <v>94</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>96</v>
@@ -7718,7 +7714,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7742,16 +7738,16 @@
         <v>40</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7773,10 +7769,10 @@
         <v>93</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>96</v>
@@ -7831,7 +7827,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7860,7 +7856,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7883,13 +7879,13 @@
         <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7940,7 +7936,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -7952,7 +7948,7 @@
         <v>40</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>40</v>
@@ -7969,7 +7965,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7992,13 +7988,13 @@
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8049,7 +8045,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8073,12 +8069,12 @@
         <v>40</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8107,7 +8103,7 @@
         <v>94</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>96</v>
@@ -8160,7 +8156,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8184,16 +8180,16 @@
         <v>40</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8215,10 +8211,10 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>96</v>
@@ -8273,7 +8269,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8302,7 +8298,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8328,10 +8324,10 @@
         <v>109</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8382,7 +8378,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>48</v>
@@ -8411,7 +8407,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8434,13 +8430,13 @@
         <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8491,7 +8487,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>48</v>
@@ -8520,7 +8516,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8543,13 +8539,13 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8600,7 +8596,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8629,7 +8625,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8652,13 +8648,13 @@
         <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8709,7 +8705,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8721,7 +8717,7 @@
         <v>40</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>40</v>
@@ -8738,7 +8734,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8761,13 +8757,13 @@
         <v>40</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8818,7 +8814,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -8842,12 +8838,12 @@
         <v>40</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8876,7 +8872,7 @@
         <v>94</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>96</v>
@@ -8929,7 +8925,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -8953,16 +8949,16 @@
         <v>40</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -8984,10 +8980,10 @@
         <v>93</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>96</v>
@@ -9042,7 +9038,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9071,7 +9067,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9094,13 +9090,13 @@
         <v>40</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9151,7 +9147,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>48</v>
@@ -9180,7 +9176,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9203,13 +9199,13 @@
         <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9260,7 +9256,7 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9289,7 +9285,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9312,13 +9308,13 @@
         <v>40</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9369,7 +9365,7 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9381,7 +9377,7 @@
         <v>40</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>40</v>
@@ -9398,7 +9394,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9421,13 +9417,13 @@
         <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9478,7 +9474,7 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9502,12 +9498,12 @@
         <v>40</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9536,7 +9532,7 @@
         <v>94</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>96</v>
@@ -9589,7 +9585,7 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9613,16 +9609,16 @@
         <v>40</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -9644,10 +9640,10 @@
         <v>93</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>96</v>
@@ -9702,7 +9698,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -9731,7 +9727,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9757,10 +9753,10 @@
         <v>109</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9811,7 +9807,7 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>48</v>
@@ -9840,7 +9836,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9866,10 +9862,10 @@
         <v>109</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9920,7 +9916,7 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -9949,7 +9945,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9972,13 +9968,13 @@
         <v>40</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10029,7 +10025,7 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -10041,7 +10037,7 @@
         <v>40</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>40</v>
@@ -10058,7 +10054,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10081,13 +10077,13 @@
         <v>40</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10138,7 +10134,7 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -10162,12 +10158,12 @@
         <v>40</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10196,7 +10192,7 @@
         <v>94</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M80" t="s" s="2">
         <v>96</v>
@@ -10249,7 +10245,7 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10273,16 +10269,16 @@
         <v>40</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10304,10 +10300,10 @@
         <v>93</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>96</v>
@@ -10362,7 +10358,7 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -10391,7 +10387,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10417,10 +10413,10 @@
         <v>109</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10450,11 +10446,11 @@
         <v>113</v>
       </c>
       <c r="X82" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="Y82" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="Y82" t="s" s="2">
-        <v>319</v>
-      </c>
       <c r="Z82" t="s" s="2">
         <v>40</v>
       </c>
@@ -10471,7 +10467,7 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10500,7 +10496,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10526,10 +10522,10 @@
         <v>146</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10580,7 +10576,7 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -10609,7 +10605,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10632,17 +10628,17 @@
         <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>40</v>
@@ -10691,7 +10687,7 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -10720,7 +10716,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10746,10 +10742,10 @@
         <v>109</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10800,7 +10796,7 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -10829,7 +10825,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10855,10 +10851,10 @@
         <v>40</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10909,7 +10905,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
@@ -10938,7 +10934,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10961,13 +10957,13 @@
         <v>40</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11018,7 +11014,7 @@
         <v>40</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>41</v>
@@ -11030,7 +11026,7 @@
         <v>40</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>40</v>
@@ -11047,7 +11043,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11070,13 +11066,13 @@
         <v>40</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11127,7 +11123,7 @@
         <v>40</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>41</v>
@@ -11151,12 +11147,12 @@
         <v>40</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11185,7 +11181,7 @@
         <v>94</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>96</v>
@@ -11238,7 +11234,7 @@
         <v>40</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
@@ -11262,16 +11258,16 @@
         <v>40</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11293,10 +11289,10 @@
         <v>93</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>96</v>
@@ -11351,7 +11347,7 @@
         <v>40</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -11380,7 +11376,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11406,10 +11402,10 @@
         <v>109</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11439,11 +11435,11 @@
         <v>113</v>
       </c>
       <c r="X91" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="Y91" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="Y91" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="Z91" t="s" s="2">
         <v>40</v>
       </c>
@@ -11460,7 +11456,7 @@
         <v>40</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -11489,7 +11485,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11512,16 +11508,16 @@
         <v>40</v>
       </c>
       <c r="J92" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="K92" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="K92" t="s" s="2">
+      <c r="L92" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -11571,7 +11567,7 @@
         <v>40</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>41</v>
@@ -11600,7 +11596,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11623,13 +11619,13 @@
         <v>40</v>
       </c>
       <c r="J93" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="K93" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="K93" t="s" s="2">
+      <c r="L93" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -11680,7 +11676,7 @@
         <v>40</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>41</v>
@@ -11709,7 +11705,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11732,13 +11728,13 @@
         <v>40</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -11789,7 +11785,7 @@
         <v>40</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>41</v>
@@ -11801,7 +11797,7 @@
         <v>40</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>40</v>
@@ -11818,7 +11814,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11841,13 +11837,13 @@
         <v>40</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -11898,7 +11894,7 @@
         <v>40</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>41</v>
@@ -11922,12 +11918,12 @@
         <v>40</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -11956,7 +11952,7 @@
         <v>94</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M96" t="s" s="2">
         <v>96</v>
@@ -12009,7 +12005,7 @@
         <v>40</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>41</v>
@@ -12033,16 +12029,16 @@
         <v>40</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -12064,10 +12060,10 @@
         <v>93</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M97" t="s" s="2">
         <v>96</v>
@@ -12122,7 +12118,7 @@
         <v>40</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>41</v>
@@ -12151,7 +12147,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12177,10 +12173,10 @@
         <v>129</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12231,7 +12227,7 @@
         <v>40</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>48</v>
@@ -12260,7 +12256,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12283,13 +12279,13 @@
         <v>40</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -12340,7 +12336,7 @@
         <v>40</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>41</v>
@@ -12352,7 +12348,7 @@
         <v>40</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>40</v>
@@ -12369,7 +12365,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12392,13 +12388,13 @@
         <v>40</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -12449,7 +12445,7 @@
         <v>40</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>41</v>
@@ -12473,12 +12469,12 @@
         <v>40</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12507,7 +12503,7 @@
         <v>94</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M101" t="s" s="2">
         <v>96</v>
@@ -12560,7 +12556,7 @@
         <v>40</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>41</v>
@@ -12584,16 +12580,16 @@
         <v>40</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -12615,10 +12611,10 @@
         <v>93</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M102" t="s" s="2">
         <v>96</v>
@@ -12673,7 +12669,7 @@
         <v>40</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>41</v>
@@ -12702,7 +12698,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12728,10 +12724,10 @@
         <v>109</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -12782,7 +12778,7 @@
         <v>40</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>48</v>
@@ -12811,7 +12807,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12834,13 +12830,13 @@
         <v>40</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -12891,7 +12887,7 @@
         <v>40</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>48</v>
@@ -12920,7 +12916,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12943,13 +12939,13 @@
         <v>40</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -13000,7 +12996,7 @@
         <v>40</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>41</v>
@@ -13012,7 +13008,7 @@
         <v>40</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>40</v>
@@ -13029,7 +13025,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13052,13 +13048,13 @@
         <v>40</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -13109,7 +13105,7 @@
         <v>40</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>41</v>
@@ -13133,12 +13129,12 @@
         <v>40</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13167,7 +13163,7 @@
         <v>94</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M107" t="s" s="2">
         <v>96</v>
@@ -13220,7 +13216,7 @@
         <v>40</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>41</v>
@@ -13244,16 +13240,16 @@
         <v>40</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -13275,10 +13271,10 @@
         <v>93</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M108" t="s" s="2">
         <v>96</v>
@@ -13333,7 +13329,7 @@
         <v>40</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>41</v>
@@ -13362,7 +13358,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13388,10 +13384,10 @@
         <v>109</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -13442,7 +13438,7 @@
         <v>40</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>48</v>
@@ -13471,7 +13467,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13494,13 +13490,13 @@
         <v>40</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -13551,7 +13547,7 @@
         <v>40</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>41</v>
@@ -13563,7 +13559,7 @@
         <v>40</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>40</v>
@@ -13580,7 +13576,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13603,13 +13599,13 @@
         <v>40</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L111" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -13660,7 +13656,7 @@
         <v>40</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>41</v>
@@ -13684,12 +13680,12 @@
         <v>40</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -13718,7 +13714,7 @@
         <v>94</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>96</v>
@@ -13771,7 +13767,7 @@
         <v>40</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>41</v>
@@ -13795,16 +13791,16 @@
         <v>40</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -13826,10 +13822,10 @@
         <v>93</v>
       </c>
       <c r="K113" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L113" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M113" t="s" s="2">
         <v>96</v>
@@ -13884,7 +13880,7 @@
         <v>40</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>41</v>
@@ -13913,7 +13909,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -13939,10 +13935,10 @@
         <v>146</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L114" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -13993,7 +13989,7 @@
         <v>40</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>48</v>
@@ -14022,7 +14018,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14045,13 +14041,13 @@
         <v>40</v>
       </c>
       <c r="J115" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="K115" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="K115" t="s" s="2">
+      <c r="L115" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -14102,7 +14098,7 @@
         <v>40</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>41</v>
@@ -14131,7 +14127,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14154,13 +14150,13 @@
         <v>40</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L116" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -14211,7 +14207,7 @@
         <v>40</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>41</v>
@@ -14223,7 +14219,7 @@
         <v>40</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>40</v>
@@ -14240,7 +14236,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14263,13 +14259,13 @@
         <v>40</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L117" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -14320,7 +14316,7 @@
         <v>40</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>41</v>
@@ -14344,12 +14340,12 @@
         <v>40</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14378,7 +14374,7 @@
         <v>94</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M118" t="s" s="2">
         <v>96</v>
@@ -14431,7 +14427,7 @@
         <v>40</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>41</v>
@@ -14455,16 +14451,16 @@
         <v>40</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -14486,10 +14482,10 @@
         <v>93</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M119" t="s" s="2">
         <v>96</v>
@@ -14544,7 +14540,7 @@
         <v>40</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>41</v>
@@ -14573,7 +14569,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14599,10 +14595,10 @@
         <v>109</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L120" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -14653,7 +14649,7 @@
         <v>40</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>41</v>
@@ -14682,7 +14678,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -14705,13 +14701,13 @@
         <v>40</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L121" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -14762,7 +14758,7 @@
         <v>40</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>41</v>
